--- a/SPPSApi/Doc/Template/FS1401_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1401_Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>品番</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>SPIS状态</t>
+  </si>
+  <si>
+    <t>OE=SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防锈区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防锈指示书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -406,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,7 +429,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,9 +464,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS1401_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1401_Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>品番</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>防锈指示书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号口品番(参考)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,18 +422,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,18 +466,21 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS1401_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1401_Export.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -424,7 +424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -463,19 +465,19 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>1</v>
